--- a/10alpha.xlsx
+++ b/10alpha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>Formula</t>
   </si>
@@ -175,7 +175,7 @@
     <t>当日换手率的排名与当日涨幅的排名的均值</t>
   </si>
   <si>
-    <t>成交额的5日均值的排名与每日涨幅的5日累加的排名的均值</t>
+    <t>成交额5日均值的排名与今日收盘价和昨日收盘价之比的5日累加的排名的均值</t>
   </si>
   <si>
     <t>成交额20日均值与成交额5日均值的均值</t>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>[10]</t>
+  </si>
+  <si>
+    <t>[252, 252, 1, 20, 20]</t>
   </si>
   <si>
     <t>价值类</t>
@@ -660,7 +663,7 @@
         <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -695,7 +698,7 @@
         <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -730,7 +733,7 @@
         <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -765,7 +768,7 @@
         <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -800,7 +803,7 @@
         <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -814,7 +817,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
@@ -835,7 +838,7 @@
         <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -870,7 +873,7 @@
         <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -905,7 +908,7 @@
         <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -940,7 +943,7 @@
         <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -972,10 +975,10 @@
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
